--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.04559999999999</v>
+        <v>-19.86529999999998</v>
       </c>
       <c r="B4" t="n">
-        <v>4.885100000000003</v>
+        <v>8.878999999999994</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.74440000000001</v>
+        <v>-22.54830000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.1706</v>
+        <v>-19.4337</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.821600000000001</v>
+        <v>-7.742199999999997</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.372800000000003</v>
+        <v>-8.453800000000003</v>
       </c>
     </row>
     <row r="9">
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.004299999999996</v>
+        <v>5.926700000000003</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.478099999999997</v>
+        <v>-7.404800000000002</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.113199999999997</v>
+        <v>4.889899999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.623100000000004</v>
+        <v>-8.492799999999995</v>
       </c>
     </row>
     <row r="14">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.85940000000002</v>
+        <v>-21.85410000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.869600000000005</v>
+        <v>-8.645500000000004</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>6.024899999999997</v>
+        <v>6.112099999999994</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.693099999999998</v>
+        <v>6.706699999999994</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.420699999999997</v>
+        <v>9.408599999999989</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.70640000000002</v>
+        <v>-22.71090000000002</v>
       </c>
       <c r="B20" t="n">
-        <v>5.245299999999999</v>
+        <v>5.408899999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.883900000000009</v>
+        <v>5.380600000000007</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9604</v>
+        <v>-21.94589999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.26049999999996</v>
+        <v>-21.26429999999996</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.058699999999996</v>
+        <v>-7.087499999999993</v>
       </c>
     </row>
     <row r="31">
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.606599999999998</v>
+        <v>4.840599999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.21530000000001</v>
+        <v>-21.18160000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.572800000000006</v>
+        <v>9.441800000000002</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.14429999999999</v>
+        <v>-20.02439999999998</v>
       </c>
       <c r="B40" t="n">
-        <v>8.579300000000002</v>
+        <v>8.745899999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.223099999999997</v>
+        <v>-8.075800000000005</v>
       </c>
     </row>
     <row r="41">
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.668599999999991</v>
+        <v>9.533799999999989</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.513099999999993</v>
+        <v>9.535899999999987</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.227200000000006</v>
+        <v>6.171800000000002</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.898699999999999</v>
+        <v>-6.682100000000005</v>
       </c>
     </row>
     <row r="45">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7917</v>
+        <v>-21.7272</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>4.974199999999997</v>
+        <v>4.905599999999996</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.892799999999999</v>
+        <v>5.747800000000002</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.706</v>
+        <v>-21.68569999999998</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.21569999999999</v>
+        <v>-22.29629999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.70810000000002</v>
+        <v>-21.92440000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.17810000000002</v>
+        <v>-22.08100000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.96200000000001</v>
+        <v>-21.93130000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.847799999999997</v>
+        <v>4.833099999999998</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.539699999999999</v>
+        <v>5.344600000000002</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.37389999999999</v>
+        <v>-21.37909999999998</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.36829999999997</v>
+        <v>-20.20539999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.63579999999998</v>
+        <v>-21.70329999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.9117</v>
+        <v>6.029199999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.021700000000003</v>
+        <v>5.002300000000004</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,13 +1678,13 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.209999999999997</v>
+        <v>5.340599999999998</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-9.506399999999998</v>
+        <v>-8.642099999999999</v>
       </c>
     </row>
     <row r="90">
@@ -1712,12 +1712,12 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.848499999999996</v>
+        <v>-7.918999999999998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.5844</v>
+        <v>-21.63840000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.635199999999992</v>
+        <v>5.032199999999991</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.07660000000001</v>
+        <v>-22.00130000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
